--- a/schedule2023.xlsx
+++ b/schedule2023.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DataHandling2023\datahandling-lecture2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,206 +24,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.09.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction: Big Data/Data Science, course overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurélien Sallin, Matthias Rösti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C: Mu Preface, Einav and Liran (2014), Lazar et al. (2009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.09.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurélien Sallin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>21.09.2023</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>01-011</t>
+  </si>
+  <si>
+    <t>Introduction: Big Data/Data Science, course overview</t>
+  </si>
+  <si>
+    <t>C: Mu Preface, Einav and Liran (2014), Lazar et al. (2009)</t>
+  </si>
+  <si>
+    <t>28.09.2023</t>
+  </si>
+  <si>
+    <t>Programming with R</t>
+  </si>
+  <si>
+    <t>Aurélien Sallin</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>18:00</t>
   </si>
   <si>
     <t xml:space="preserve">01-013 </t>
   </si>
   <si>
-    <t xml:space="preserve">Exercises/Workshop 1: Tools, programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Rösti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C: Mu chapter 9.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.10.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An introduction to data and data processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 3, WiGr chapter 1; C: Mu chapter 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.10.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data storage and data structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 4, C: Mu chapter 5.1-5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercises/Workshop 2: Data storage and data structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web data, text, and images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 5-7, C: Mu chapter 5.5, Webb et al. (2020), Gentzkow et al. (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.10.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data sources, data gathering, data import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 8, WiGr chapter 11; C: Mu chapter 9.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercises/Workshop 3: Web data, text, and images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.11.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester Break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.11.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.11.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data preparation and manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 9, WiGr chapter 5; C: Mu chapter 9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.11.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic statistics and data analysis with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 10-11</t>
+    <t>Exercises/Workshop 1: Tools, programming</t>
+  </si>
+  <si>
+    <t>Matthias Rösti</t>
+  </si>
+  <si>
+    <t>C: Mu chapter 9.9</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>An introduction to data and data processing</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 3, WiGr chapter 1; C: Mu chapter 2.</t>
+  </si>
+  <si>
+    <t>12.10.2023</t>
+  </si>
+  <si>
+    <t>Data storage and data structures</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 4, C: Mu chapter 5.1-5.4</t>
+  </si>
+  <si>
+    <t>Exercises/Workshop 2: Data storage and data structures</t>
+  </si>
+  <si>
+    <t>19.10.2023</t>
+  </si>
+  <si>
+    <t>Web data, text, and images</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 5-7, C: Mu chapter 5.5, Webb et al. (2020), Gentzkow et al. (2019)</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>Data sources, data gathering, data import</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 8, WiGr chapter 11; C: Mu chapter 9.7</t>
+  </si>
+  <si>
+    <t>Exercises/Workshop 3: Web data, text, and images</t>
+  </si>
+  <si>
+    <t>02.11.2023</t>
+  </si>
+  <si>
+    <t>Semester Break</t>
+  </si>
+  <si>
+    <t>09.11.2023</t>
+  </si>
+  <si>
+    <t>16.11.2023</t>
+  </si>
+  <si>
+    <t>Data preparation and manipulation</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 9, WiGr chapter 5; C: Mu chapter 9.8</t>
+  </si>
+  <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>Basic statistics and data analysis with R</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 10-11</t>
   </si>
   <si>
     <t xml:space="preserve">Exercises/Workshop 4: Data gathering, data import </t>
   </si>
   <si>
-    <t xml:space="preserve">Andrea Burro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.11.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisation, dynamic documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M: Ma chapter 12, C: Wickham (2016), Mu chapter 9.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.12.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Lecture: Matteo Courthoud (Senior Economist and Data Scientist \@Zalando)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matteo Courthoud (Senior Economist and Data Scientist @Zalando)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercises/Workshop 5: Data preparation and applied data analysis with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.12.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Lecture: Florian Chatagny (Head of Data Science \@Federal Finance Administration in Bern)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian Chatagny (Head of Data Science, Federal Finance Administration in Bern)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercises/Workshop 6: Visualization, dynamic documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary, Wrap-Up, Q&amp;A, Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam for Exchange Students</t>
+    <t>Andrea Burro</t>
+  </si>
+  <si>
+    <t>30.11.2023</t>
+  </si>
+  <si>
+    <t>Visualisation, dynamic documents</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 12, C: Wickham (2016), Mu chapter 9.10.</t>
+  </si>
+  <si>
+    <t>07.12.2023</t>
+  </si>
+  <si>
+    <t>Guest Lecture: Matteo Courthoud (Senior Economist and Data Scientist \@Zalando)</t>
+  </si>
+  <si>
+    <t>Matteo Courthoud (Senior Economist and Data Scientist @Zalando)</t>
+  </si>
+  <si>
+    <t>Exercises/Workshop 5: Data preparation and applied data analysis with R</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>Guest Lecture: Florian Chatagny (Head of Data Science \@Federal Finance Administration in Bern)</t>
+  </si>
+  <si>
+    <t>Florian Chatagny (Head of Data Science, Federal Finance Administration in Bern)</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>Exercises/Workshop 6: Visualization, dynamic documents</t>
+  </si>
+  <si>
+    <t>Summary, Wrap-Up, Q&amp;A, Feedback</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Exam for Exchange Students</t>
+  </si>
+  <si>
+    <t>Aurélien Sallin, Andrea Burro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -227,22 +227,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -263,15 +248,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,9 +280,15 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -306,157 +296,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -515,13 +437,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -537,11 +475,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -574,11 +512,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 9" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 9"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -611,11 +549,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 17" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 17"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -648,11 +586,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 25" descr=""/>
+        <xdr:cNvPr id="5" name="Picture 25"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -685,11 +623,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 33" descr=""/>
+        <xdr:cNvPr id="6" name="Picture 33"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -722,11 +660,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 41" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 41"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -759,11 +697,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 49" descr=""/>
+        <xdr:cNvPr id="8" name="Picture 49"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -796,11 +734,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 57" descr=""/>
+        <xdr:cNvPr id="9" name="Picture 57"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -833,11 +771,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 65" descr=""/>
+        <xdr:cNvPr id="10" name="Picture 65"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -870,11 +808,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 73" descr=""/>
+        <xdr:cNvPr id="11" name="Picture 73"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -907,11 +845,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 81" descr=""/>
+        <xdr:cNvPr id="12" name="Picture 81"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -944,11 +882,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 89" descr=""/>
+        <xdr:cNvPr id="13" name="Picture 89"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -981,11 +919,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 97" descr=""/>
+        <xdr:cNvPr id="14" name="Picture 97"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1018,11 +956,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 105" descr=""/>
+        <xdr:cNvPr id="15" name="Picture 105"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1055,11 +993,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 113" descr=""/>
+        <xdr:cNvPr id="16" name="Picture 113"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1092,11 +1030,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 121" descr=""/>
+        <xdr:cNvPr id="17" name="Picture 121"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1129,11 +1067,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 129" descr=""/>
+        <xdr:cNvPr id="18" name="Picture 129"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1166,11 +1104,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 137" descr=""/>
+        <xdr:cNvPr id="19" name="Picture 137"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1191,26 +1129,284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="67.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.16"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1250,15 +1446,15 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1270,62 +1466,62 @@
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -1337,39 +1533,39 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1381,18 +1577,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -1404,67 +1600,67 @@
         <v>10</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -1476,18 +1672,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>8</v>
@@ -1499,106 +1695,104 @@
         <v>10</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>8</v>
@@ -1610,37 +1804,37 @@
         <v>10</v>
       </c>
       <c r="E19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="F20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>8</v>
@@ -1652,49 +1846,51 @@
         <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>62</v>
-      </c>
       <c r="F22" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="01-013 "/>
-    <hyperlink ref="D7" r:id="rId2" display="01-013 "/>
-    <hyperlink ref="D10" r:id="rId3" display="01-013 "/>
-    <hyperlink ref="D15" r:id="rId4" display="01-013 "/>
-    <hyperlink ref="D18" r:id="rId5" display="01-013 "/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D18" r:id="rId5"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.479861111111111" right="0.479861111111111" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.47986111111111102" right="0.47986111111111102" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/schedule2023.xlsx
+++ b/schedule2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Aurélien Sallin, Andrea Burro</t>
+  </si>
+  <si>
+    <t>M: Ma chapter 2, WiGr chapters 4 and 6, C: Mu chapter 9.11</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -373,6 +376,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1395,7 +1400,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1476,9 @@
       <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="37" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1492,7 +1499,7 @@
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1515,7 +1522,7 @@
       <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1538,7 +1545,7 @@
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1628,9 +1635,7 @@
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1767,7 +1772,9 @@
       <c r="F17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="37" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
